--- a/Application/Input/sampling_method_input_coverage_example.xlsx
+++ b/Application/Input/sampling_method_input_coverage_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/glance_simulation/stats/Active-Sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/SubmittedActiveSamplingforTechnometrics/ActiveSampling/Application/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E42D5B-566A-45A5-ADBC-DA4D255B5EA4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CB9953-5703-1640-8224-80AA0B155DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2304" yWindow="1716" windowWidth="17280" windowHeight="8976" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
+    <workbookView xWindow="2300" yWindow="1720" windowWidth="20020" windowHeight="8700" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>sim_order</t>
   </si>
   <si>
-    <t>minimising anticipated variance</t>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -102,13 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,9 +126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +166,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -273,7 +272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,29 +424,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E261EBCA-2599-45D2-83B6-1D4CFFC0FCA3}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="25.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -460,27 +459,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -500,35 +499,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Application/Input/sampling_method_input_coverage_example.xlsx
+++ b/Application/Input/sampling_method_input_coverage_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/SubmittedActiveSamplingforTechnometrics/ActiveSampling/Application/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/Check reproducibility/ActiveSampling/Application/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CB9953-5703-1640-8224-80AA0B155DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD8FBB6-2025-0D46-AE19-1BCEDF7039CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="1720" windowWidth="20020" windowHeight="8700" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
